--- a/examples/localdb/artifact/data/Unemployment.data.xlsx
+++ b/examples/localdb/artifact/data/Unemployment.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/localdb/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B3CF2-E992-AF40-89D6-36BBB101D433}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B8371-6BC6-6141-AC5B-74EE163A61D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <author>tc={A0393A42-9142-AD48-A86F-D2FEC67A120C}</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{867155F4-B93B-7D42-A95F-4AE250BA39E4}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{867155F4-B93B-7D42-A95F-4AE250BA39E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
     We also delete data from this table so that we can re-run the corresponding script without incurring data from previous runs.</t>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{927997FA-7722-124C-9B8B-60B44C59B985}">
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{927997FA-7722-124C-9B8B-60B44C59B985}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
     We also delete data from this table so that we can re-run the corresponding script without incurring data from previous runs.</t>
       </text>
     </comment>
-    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{991B7DB5-B265-B24C-8251-7368C8833EDE}">
+    <comment ref="B9" authorId="2" shapeId="0" xr:uid="{991B7DB5-B265-B24C-8251-7368C8833EDE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +82,7 @@
 In order to derive an accurate average vaule, we need to divide the total of all recorded months by the count of recorded months (not necessarily 12 months). Hence the tri-layer sub-selects.</t>
       </text>
     </comment>
-    <comment ref="B15" authorId="3" shapeId="0" xr:uid="{A0393A42-9142-AD48-A86F-D2FEC67A120C}">
+    <comment ref="B16" authorId="3" shapeId="0" xr:uid="{A0393A42-9142-AD48-A86F-D2FEC67A120C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>true</t>
   </si>
@@ -243,12 +243,48 @@
        '}' AS "json"
 ;</t>
   </si>
+  <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>unemployment.json</t>
+  </si>
+  <si>
+    <t>unemployment1.json</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unemployment.json</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unemployment-1.json</t>
+  </si>
+  <si>
+    <t>unemployment.xml</t>
+  </si>
+  <si>
+    <t>unemployment1.xml</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unemployment.xml</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unemployment-1.xml</t>
+  </si>
+  <si>
+    <t>unemployment.excel</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unemployment.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,12 +329,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -806,17 +836,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B5" dT="2019-05-08T23:18:21.11" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{867155F4-B93B-7D42-A95F-4AE250BA39E4}">
+  <threadedComment ref="B6" dT="2019-05-08T23:18:21.11" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{867155F4-B93B-7D42-A95F-4AE250BA39E4}">
     <text>We also delete data from this table so that we can re-run the corresponding script without incurring data from previous runs.</text>
   </threadedComment>
-  <threadedComment ref="B6" dT="2019-05-08T23:18:29.31" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{927997FA-7722-124C-9B8B-60B44C59B985}">
+  <threadedComment ref="B7" dT="2019-05-08T23:18:29.31" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{927997FA-7722-124C-9B8B-60B44C59B985}">
     <text>We also delete data from this table so that we can re-run the corresponding script without incurring data from previous runs.</text>
   </threadedComment>
-  <threadedComment ref="B8" dT="2019-05-08T23:17:37.67" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{991B7DB5-B265-B24C-8251-7368C8833EDE}">
+  <threadedComment ref="B9" dT="2019-05-08T23:17:37.67" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{991B7DB5-B265-B24C-8251-7368C8833EDE}">
     <text>This query looks convoluted because we need to account for months where no unemployment information is available, such the months in the later part of current year.
 In order to derive an accurate average vaule, we need to divide the total of all recorded months by the count of recorded months (not necessarily 12 months). Hence the tri-layer sub-selects.</text>
   </threadedComment>
-  <threadedComment ref="B15" dT="2019-05-08T23:19:17.58" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{A0393A42-9142-AD48-A86F-D2FEC67A120C}">
+  <threadedComment ref="B16" dT="2019-05-08T23:19:17.58" personId="{52F7C5CC-5DD6-0345-943B-0DB68FB928A6}" id="{A0393A42-9142-AD48-A86F-D2FEC67A120C}">
     <text>The funky SQL here is to generate a JSON document dynamically. There are probably better ways out there…</text>
   </threadedComment>
 </ThreadedComments>
@@ -824,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA198"/>
+  <dimension ref="A1:AAA199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -871,132 +901,176 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" ht="288">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA5" s="6"/>
+      <c r="AAA5" s="6"/>
+    </row>
+    <row r="6" spans="1:703" ht="288">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703" ht="126">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" ht="23" customHeight="1">
+    <row r="7" spans="1:703" ht="126">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703" ht="394">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703" ht="394">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:703" ht="23" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:703" ht="180">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:703" ht="180">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:703" ht="23" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="23" customHeight="1"/>
-    <row r="18" ht="23" customHeight="1"/>
-    <row r="19" ht="23" customHeight="1"/>
-    <row r="20" ht="23" customHeight="1"/>
-    <row r="21" ht="23" customHeight="1"/>
-    <row r="22" ht="23" customHeight="1"/>
-    <row r="23" ht="23" customHeight="1"/>
-    <row r="24" ht="23" customHeight="1"/>
-    <row r="25" ht="23" customHeight="1"/>
-    <row r="26" ht="23" customHeight="1"/>
-    <row r="27" ht="23" customHeight="1"/>
-    <row r="28" ht="23" customHeight="1"/>
-    <row r="29" ht="23" customHeight="1"/>
-    <row r="30" ht="23" customHeight="1"/>
-    <row r="31" ht="23" customHeight="1"/>
-    <row r="32" ht="23" customHeight="1"/>
+    <row r="18" spans="1:2" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23" customHeight="1"/>
+    <row r="24" spans="1:2" ht="23" customHeight="1"/>
+    <row r="25" spans="1:2" ht="23" customHeight="1"/>
+    <row r="26" spans="1:2" ht="23" customHeight="1"/>
+    <row r="27" spans="1:2" ht="23" customHeight="1"/>
+    <row r="28" spans="1:2" ht="23" customHeight="1"/>
+    <row r="29" spans="1:2" ht="23" customHeight="1"/>
+    <row r="30" spans="1:2" ht="23" customHeight="1"/>
+    <row r="31" spans="1:2" ht="23" customHeight="1"/>
+    <row r="32" spans="1:2" ht="23" customHeight="1"/>
     <row r="33" ht="23" customHeight="1"/>
     <row r="34" ht="23" customHeight="1"/>
     <row r="35" ht="23" customHeight="1"/>
@@ -1163,9 +1237,10 @@
     <row r="196" ht="23" customHeight="1"/>
     <row r="197" ht="23" customHeight="1"/>
     <row r="198" ht="23" customHeight="1"/>
+    <row r="199" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A9 A11:A1048576">
+  <conditionalFormatting sqref="A1:A10 A12:A1048576">
     <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
@@ -1176,7 +1251,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B9 B11:B1048576">
+  <conditionalFormatting sqref="B1:B10 B12:B1048576">
     <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
@@ -1184,23 +1259,23 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A11">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B11">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(B10))&gt;0</formula>
+      <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
